--- a/Тексты.xlsx
+++ b/Тексты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukre\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C666E8DC-A6DD-49FC-A1CA-FD56C88F5CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C999555E-03FB-4373-B570-F2E5EE3E6AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="555" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="106">
   <si>
     <t>Лока</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Какой странный вопрос. Тебе-то уж точно это лучше знать!</t>
   </si>
   <si>
-    <t>Ты в *название локи*</t>
-  </si>
-  <si>
     <t>Я? Я обычный работяга/работник (хд, надо найти другое слово), а ты меня свой болтовней отвлекаешь. Проходи быстрее, не хочу, чтобы у меня проблемы были.</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Что за алмазы?</t>
   </si>
   <si>
-    <t>Алмазы образуются при взрыве кубов, они то мне и нужны, приступай, не задерживайся</t>
-  </si>
-  <si>
     <t>Какая мне от этого польза?</t>
   </si>
   <si>
@@ -174,13 +168,188 @@
     <t>1 2 3 4</t>
   </si>
   <si>
-    <t>Просто перемещай кубы так, чтобы собрались минимум по 3 в ряд одного цвета. Как по мне, это очень просто!</t>
-  </si>
-  <si>
     <t>Да-да, я сам мало что понимаю, да и не надо мне это. Мое дело - руками работать, а не головой. Проходи, не отвлекай меня!</t>
   </si>
   <si>
     <t>Ты уже закончил? На разговоры нет времени.</t>
+  </si>
+  <si>
+    <t>Быстро ты управился… Одну минуточку…</t>
+  </si>
+  <si>
+    <t>Снова нужна помощь?</t>
+  </si>
+  <si>
+    <t>Для чего нужны эти алмазы?</t>
+  </si>
+  <si>
+    <t>Ты чем-то занят?</t>
+  </si>
+  <si>
+    <t>Да, опять алмазы. Кончаются жуть как быстро!</t>
+  </si>
+  <si>
+    <t>Да... То есть нет! Нет, ничем</t>
+  </si>
+  <si>
+    <t>Они мне для… А впрочем, не важно! Может быть уже займемся делом?</t>
+  </si>
+  <si>
+    <t>Может, есть способ получить больше алмазов, раз они так быстро расходуются?</t>
+  </si>
+  <si>
+    <t>На сколько больше?</t>
+  </si>
+  <si>
+    <t>Да, совсем забыл. При взрыве камни воздействуют на соседние, заряжая их дополнительной энергией. Взорвав такой заряженный камень, кристаллов получается больше.</t>
+  </si>
+  <si>
+    <t>Просто перемещай алмазы так, чтобы собрались минимум по 3 в ряд одного цвета. Как по мне, это очень просто!</t>
+  </si>
+  <si>
+    <t>Алмазы образуются при взрыве камней, они то мне и нужны, приступай, не задерживайся</t>
+  </si>
+  <si>
+    <t>Как раз на число зарядов, отмеченное на камне. Максимальный бонус: 5.</t>
+  </si>
+  <si>
+    <t>Ты в *название локи*. Это место богато алмазами, добываемыми на каменных полях. Разве не за этим ты здесь?</t>
+  </si>
+  <si>
+    <t>Разве, ты не справишься сам?</t>
+  </si>
+  <si>
+    <t>Я бы мог, но…</t>
+  </si>
+  <si>
+    <t>Ты как раз кстати! Есть крохотная работёнка... Но плата ничуть не скуднее!</t>
+  </si>
+  <si>
+    <t>Крохотная? Разве есть разница?</t>
+  </si>
+  <si>
+    <t>Да, разумеется есть! Каменные поля бывают разных размеров - от самых больших до самых маленьких. К слову о маленьких, у меня под рукой есть одно такое</t>
+  </si>
+  <si>
+    <t>Но?</t>
+  </si>
+  <si>
+    <t>Ладно! Работка не такая и крохотная! Тут смекалка нужна. Хватит вопросов!</t>
+  </si>
+  <si>
+    <t>Рад тебя видеть! Отлично справляешься! Из тебя выходит отличный помощник!</t>
+  </si>
+  <si>
+    <t>Если честно, я всё еще не понимаю, что я тут делаю…</t>
+  </si>
+  <si>
+    <t>Ах, у всех бывают такие времена… Помню и у меня однажды… Впрочем, не важно всё это.</t>
+  </si>
+  <si>
+    <t>Не знаю почему, но это меня заинтересовало! Какое на этот раз поле?</t>
+  </si>
+  <si>
+    <t>Альтернативные варианты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На этот раз - самое обыкновенное: 5 рядов и 5 колонок. В этих местах добрая половина полей именно такие. </t>
+  </si>
+  <si>
+    <t>Получается, это самое обыкновенное поле?</t>
+  </si>
+  <si>
+    <t>Не совсем. На этом поле есть своя сложность: различных цветов камней тут больше - 5. Это требует большой сосредоточенности.</t>
+  </si>
+  <si>
+    <t>Так всё же, для чего эти алмазы тебе нужны?</t>
+  </si>
+  <si>
+    <t>Я хотел бы тебе сказать. Но не могу. Нет… Не могу.</t>
+  </si>
+  <si>
+    <t>Кажется, я готов приступить</t>
+  </si>
+  <si>
+    <t>Да, разумеется. Хотя подожди! Совсем забыл… В большинстве случаев ресурсы ограничены, ты не можешь двигать камни и добывать алмазы сколь угодно долго. Для этого необходимы свайпы (мне не нравится слово свайпы), их количество для каждой задачи можно найти вверху экрана</t>
+  </si>
+  <si>
+    <t>is_after_game</t>
+  </si>
+  <si>
+    <t>Добро пожаловать на мои любимые поля! Обычно я сам ими занимаюсь, но сегодня хочу показать их тебе.</t>
+  </si>
+  <si>
+    <t>О чем ты?</t>
+  </si>
+  <si>
+    <t>Не нужно вопросов. Взгляни сам. Это самые плодоносные поля! Если вообще можно так сказать о каменюках, хе-хе.</t>
+  </si>
+  <si>
+    <t>Скорее! Зрелище еще то!</t>
+  </si>
+  <si>
+    <t>Ух! Шикарно! Всего 2 цвета. Столько алмазов! 
+Отличная работа! Скоро увидимся, впереди у меня тоже есть поля, правда, довольно необычные…</t>
+  </si>
+  <si>
+    <t>Большие поля - большие возможности! Тут много работы, нужно приступать сейчас же!</t>
+  </si>
+  <si>
+    <t>Оказалось не так и сложно.</t>
+  </si>
+  <si>
+    <t>Отличное поле! Люблю пораскинуть мозгами.</t>
+  </si>
+  <si>
+    <t>Было сложно! Мне не понравилось.</t>
+  </si>
+  <si>
+    <t>0 2</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>А с первого взгляда и не скажешь, что тебя пугают трудности</t>
+  </si>
+  <si>
+    <t>Еще на нескольких таких полях побываешь - будешь вообще запросто их разряжать!</t>
+  </si>
+  <si>
+    <t>Превосходно! Значит, ты любишь трудности? Похвально! Я это запомню. Разряжать поля - интересное занятие!</t>
+  </si>
+  <si>
+    <t>Так чем мы всё-таки занимаемся?</t>
+  </si>
+  <si>
+    <t>Что значит "разряжать поля"?</t>
+  </si>
+  <si>
+    <t>Так в народе называют добычу алмазов. Поля заряжаются от передвижений камней, при взрывах энергия высвобождается, образуя алмазы.</t>
+  </si>
+  <si>
+    <t>is_canceled</t>
+  </si>
+  <si>
+    <t>Что значит "разряжать"?</t>
+  </si>
+  <si>
+    <t>У каждого своя цель. Я использую алмазы для изготовления *чего-то интересного*. Но у алмазов множество применений!</t>
+  </si>
+  <si>
+    <t>Хорошо, мне пора идти.</t>
+  </si>
+  <si>
+    <t>Еще увидимся!</t>
+  </si>
+  <si>
+    <t>Сложная будет работенка. Не до разговоров…</t>
+  </si>
+  <si>
+    <t>Ничего сложного, но, в силу некоторых условий, поле немного… Растянулось.</t>
+  </si>
+  <si>
+    <t>А я думал, что ты уже закончил…</t>
   </si>
 </sst>
 </file>
@@ -524,11 +693,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,15 +706,15 @@
     <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="7" max="7" width="27.85546875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15" style="2" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,16 +737,25 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -593,11 +771,17 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -610,11 +794,17 @@
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -627,11 +817,17 @@
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -644,11 +840,17 @@
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -661,11 +863,17 @@
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -684,11 +892,17 @@
       <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -707,11 +921,17 @@
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -725,16 +945,22 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -745,19 +971,25 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -765,16 +997,22 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -785,36 +1023,48 @@
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,36 +1072,48 @@
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,22 +1121,28 @@
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,13 +1156,19 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="3">
+        <v>35</v>
+      </c>
+      <c r="K17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,36 +1176,48 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,22 +1225,28 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,13 +1257,19 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -979,22 +1277,28 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1007,11 +1311,17 @@
       <c r="G23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,22 +1329,28 @@
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,11 +1363,17 @@
       <c r="G25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,22 +1381,28 @@
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1082,16 +1410,22 @@
         <v>19</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1099,25 +1433,31 @@
         <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -1125,16 +1465,1541 @@
         <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="3">
         <v>1</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="3">
+        <v>4</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K65" s="3">
+        <v>1</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H75" s="3">
+        <v>2</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H76" s="3">
+        <v>2</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0</v>
+      </c>
+      <c r="L78" s="3">
+        <v>0</v>
+      </c>
+      <c r="M78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0</v>
+      </c>
+      <c r="L79" s="3">
+        <v>0</v>
+      </c>
+      <c r="M79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0</v>
+      </c>
+      <c r="L80" s="3">
+        <v>0</v>
+      </c>
+      <c r="M80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K82" s="3">
+        <v>1</v>
+      </c>
+      <c r="L82" s="3">
+        <v>0</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K84" s="3">
+        <v>1</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
